--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2790469.354053888</v>
+        <v>2787451.763652951</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9101501.585655253</v>
+        <v>9101501.585655255</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>117.3399729105738</v>
       </c>
       <c r="C2" t="n">
-        <v>155.3530944798157</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>66.49439089594706</v>
+        <v>207.0351854764311</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>161.7025655997913</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>121.1255468472098</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.28901572941165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>6.837139712982014</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>231.8101125009438</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>327.707106523863</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>218.5035263306621</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8.959399123749614</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>148.9515698543533</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>12.73247494085467</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>161.4046520073175</v>
+        <v>94.16481274941303</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896924</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>129.7991263300497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>159.9578729035108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.1134893469141</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.62632676293252</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>16.88248091814297</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>17.01715209213655</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>127.3192606090828</v>
+        <v>84.3553181439795</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>220.0883375064757</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.3085003010329</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>52.34452922604859</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>206.4690032472063</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>219.1175572072692</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.9693282917576</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353781</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353781</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353781</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861747</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862885</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331691</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y2" t="n">
-        <v>1349.569168355879</v>
+        <v>1447.000728742896</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.2378263186104</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C4" t="n">
-        <v>404.2378263186104</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D4" t="n">
-        <v>404.2378263186104</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>404.2378263186104</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>631.5460136500086</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="T4" t="n">
-        <v>404.2378263186104</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="U4" t="n">
-        <v>404.2378263186104</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="V4" t="n">
-        <v>404.2378263186104</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="W4" t="n">
-        <v>404.2378263186104</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X4" t="n">
-        <v>404.2378263186104</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.2378263186104</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1369.416431066817</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="C5" t="n">
-        <v>1000.453914126406</v>
+        <v>980.0440797398257</v>
       </c>
       <c r="D5" t="n">
-        <v>642.1882155196552</v>
+        <v>980.0440797398257</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>594.2558271415814</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.555763042629</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y5" t="n">
-        <v>1369.416431066817</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4656,31 +4656,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>210.965822962985</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629041</v>
+        <v>210.965822962985</v>
       </c>
       <c r="D7" t="n">
-        <v>507.3364050629041</v>
+        <v>60.84918355064931</v>
       </c>
       <c r="E7" t="n">
-        <v>359.423311480511</v>
+        <v>60.84918355064931</v>
       </c>
       <c r="F7" t="n">
-        <v>359.423311480511</v>
+        <v>60.84918355064931</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>60.84918355064931</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>210.965822962985</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>210.965822962985</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2462.99746222939</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2131.93457488582</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2131.93457488582</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>2131.93457488582</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>1550.100961840373</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240415</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="11">
@@ -5030,55 +5030,55 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>717.1440534185987</v>
+        <v>217.801580943136</v>
       </c>
       <c r="C13" t="n">
-        <v>548.2078704906918</v>
+        <v>217.801580943136</v>
       </c>
       <c r="D13" t="n">
-        <v>398.091231078356</v>
+        <v>217.801580943136</v>
       </c>
       <c r="E13" t="n">
-        <v>398.091231078356</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>398.091231078356</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>874.9271131227927</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488384</v>
+        <v>620.2426249169058</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488384</v>
+        <v>620.2426249169058</v>
       </c>
       <c r="X13" t="n">
-        <v>898.7925182488384</v>
+        <v>620.2426249169058</v>
       </c>
       <c r="Y13" t="n">
-        <v>898.7925182488384</v>
+        <v>399.4500457733757</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M15" t="n">
         <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>688.5786845598172</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>519.6425016319104</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>369.5258622195746</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>221.6127686371815</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>221.6127686371815</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>688.5786845598172</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,13 +5528,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.9892362638</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.05892046586</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>3138.955990222749</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>3446.276123502711</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>3776.138751166744</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>4445.602512469403</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557071</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.2520934878793</v>
+        <v>192.3330639344405</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>192.3330639344405</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.900558318119</v>
+        <v>192.3330639344405</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>943.0172707642139</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488384</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>737.2189092553931</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>447.8017392184324</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>447.8017392184324</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,7 +6002,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6023,7 +6023,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>410.8883413288165</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>410.8883413288165</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>410.8883413288165</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>410.8883413288165</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>263.9983938309061</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>592.5368061590563</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,16 +6242,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>2525.058920465857</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>3138.955990222746</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>3446.276123502707</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>3776.13875116674</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>4055.678816385437</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4575.979438121184</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4503.139178847511</v>
+        <v>561.6946978510159</v>
       </c>
       <c r="C28" t="n">
-        <v>4334.202995919604</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507269</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426965</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746786</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576119</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4525.994054365625</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>4525.994054365625</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V28" t="n">
-        <v>4525.994054365625</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W28" t="n">
-        <v>4525.994054365625</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X28" t="n">
-        <v>4525.994054365625</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y28" t="n">
-        <v>4525.994054365625</v>
+        <v>743.3431626812556</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>4075.778457043642</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>4075.778457043642</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>3925.661817631306</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>4382.384669597912</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>4092.967499560951</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>4092.967499560951</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>4092.967499560951</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,61 +6689,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>3446.276123502709</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>3776.138751166742</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>4360.722674916369</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.5712828402495</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6886,22 +6886,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1370.310956811354</v>
+        <v>1189.923463282782</v>
       </c>
       <c r="V34" t="n">
-        <v>1115.626468605467</v>
+        <v>935.2389750768955</v>
       </c>
       <c r="W34" t="n">
-        <v>826.2092985685066</v>
+        <v>935.2389750768955</v>
       </c>
       <c r="X34" t="n">
-        <v>598.2197476704893</v>
+        <v>707.2494241788781</v>
       </c>
       <c r="Y34" t="n">
-        <v>598.2197476704893</v>
+        <v>707.2494241788781</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,13 +6959,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1276.604818531159</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1276.604818531159</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1276.604818531159</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7166,16 +7166,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,28 +7190,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916677</v>
+        <v>653.8460027287427</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916677</v>
+        <v>653.8460027287427</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916677</v>
+        <v>653.8460027287427</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916677</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929846</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>4520.375241843984</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>4231.246603057542</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>3976.562114851655</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W40" t="n">
-        <v>3687.144944814694</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X40" t="n">
-        <v>3459.155393916677</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916677</v>
+        <v>653.8460027287427</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7406,55 +7406,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L42" t="n">
-        <v>921.193690363625</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>392.0201325405894</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C43" t="n">
-        <v>392.0201325405894</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405894</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581963</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1446.043008713409</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1446.043008713409</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1446.043008713409</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1156.914369926967</v>
+        <v>955.5012031746817</v>
       </c>
       <c r="V43" t="n">
-        <v>902.2298817210801</v>
+        <v>955.5012031746817</v>
       </c>
       <c r="W43" t="n">
-        <v>612.8127116841194</v>
+        <v>955.5012031746817</v>
       </c>
       <c r="X43" t="n">
-        <v>612.8127116841194</v>
+        <v>727.5116522766643</v>
       </c>
       <c r="Y43" t="n">
-        <v>392.0201325405894</v>
+        <v>727.5116522766643</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7643,52 +7643,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L45" t="n">
-        <v>921.193690363625</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916677</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916677</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916677</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916677</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916677</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916677</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431058</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436455</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042138</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014294</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S46" t="n">
-        <v>4744.160657054477</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T46" t="n">
-        <v>4520.375241843984</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="U46" t="n">
-        <v>4231.246603057542</v>
+        <v>4260.730820705227</v>
       </c>
       <c r="V46" t="n">
-        <v>3976.562114851655</v>
+        <v>4260.730820705227</v>
       </c>
       <c r="W46" t="n">
-        <v>3687.144944814694</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="X46" t="n">
-        <v>3459.155393916677</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916677</v>
+        <v>4039.399954839299</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>124.3400780863219</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231153</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,13 +9173,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,25 +9246,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>124.3400780863212</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,22 +9477,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>286.5092576192341</v>
       </c>
       <c r="M21" t="n">
-        <v>124.3400780863228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>360.5026862907246</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231151</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10191,16 +10191,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814688</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>308.1251096272024</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>234.4116509503166</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>124.340078086323</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>39.88923345256785</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>137.4745635228196</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>17.54199860902426</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>153.7610935225229</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>5.842169091310353</v>
+        <v>73.0820083492148</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>18.81634668816267</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>92.17977042031717</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>1.380079116463492</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,19 +24412,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.2056534190048</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>150.3643401804849</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>162.8148280898008</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,13 +24886,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25126,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>158.9180917894946</v>
+        <v>201.8820342545978</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,25 +25360,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.459223551913539</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0.125462345536306</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.6198231777442</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>79.76834915137101</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338454</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>67.40544112932184</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.5424193959</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776764.5424193956</v>
+        <v>776764.5424193958</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776764.5424193956</v>
+        <v>776764.5424193958</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>776764.5424193956</v>
+        <v>776764.5424193958</v>
       </c>
     </row>
     <row r="13">
@@ -26314,46 +26314,46 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="G2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>606095.0425934483</v>
       </c>
-      <c r="H2" t="n">
-        <v>606095.0425934485</v>
-      </c>
       <c r="I2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="M2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="L2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934488</v>
-      </c>
       <c r="N2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="O2" t="n">
         <v>606095.0425934482</v>
       </c>
-      <c r="O2" t="n">
-        <v>606095.0425934485</v>
-      </c>
       <c r="P2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934483</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430941</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430948</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26506,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-192879.3293748896</v>
+        <v>-193294.5438843569</v>
       </c>
       <c r="C6" t="n">
-        <v>397088.5498396551</v>
+        <v>396673.3353301876</v>
       </c>
       <c r="D6" t="n">
-        <v>397088.5498396552</v>
+        <v>396673.3353301877</v>
       </c>
       <c r="E6" t="n">
-        <v>-25763.82048647385</v>
+        <v>-26097.98945360383</v>
       </c>
       <c r="F6" t="n">
-        <v>499396.2159904225</v>
+        <v>499062.047023293</v>
       </c>
       <c r="G6" t="n">
-        <v>499396.2159904222</v>
+        <v>499062.0470232927</v>
       </c>
       <c r="H6" t="n">
-        <v>499396.2159904224</v>
+        <v>499062.0470232928</v>
       </c>
       <c r="I6" t="n">
-        <v>499396.2159904222</v>
+        <v>499062.0470232931</v>
       </c>
       <c r="J6" t="n">
-        <v>322972.9967978294</v>
+        <v>322638.8278307</v>
       </c>
       <c r="K6" t="n">
-        <v>499396.2159904224</v>
+        <v>499062.0470232929</v>
       </c>
       <c r="L6" t="n">
-        <v>499396.2159904225</v>
+        <v>499062.0470232931</v>
       </c>
       <c r="M6" t="n">
-        <v>364595.2007565856</v>
+        <v>364261.0317894556</v>
       </c>
       <c r="N6" t="n">
-        <v>499396.2159904221</v>
+        <v>499062.0470232927</v>
       </c>
       <c r="O6" t="n">
-        <v>499396.2159904225</v>
+        <v>499062.0470232926</v>
       </c>
       <c r="P6" t="n">
-        <v>499396.2159904226</v>
+        <v>499062.0470232926</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26826,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>265.3938687529068</v>
       </c>
       <c r="C2" t="n">
-        <v>209.9197972911919</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>145.6511480540718</v>
+        <v>5.110353473587793</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>220.2278044724704</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>285.7504988945017</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>156.0207865296393</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>149.3337491288131</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>19.41405500734552</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>58.53083213219054</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>6.531579127422191</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>131.0703856053968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-9.590359236265405e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-4.820566934132988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>434.7644551367884</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642235</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178469</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>331.433493017846</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>535.7669625752584</v>
       </c>
       <c r="M21" t="n">
-        <v>434.7644551367891</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
@@ -36221,7 +36221,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467489</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081892</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341712</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>532.9342021211286</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>590.4888118683106</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>483.6693559063409</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>274.9155166742622</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109119</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>373.0838068505807</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2787451.763652951</v>
+        <v>2862981.433317756</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>117.3399729105738</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>254.8508294034812</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>49.75696784121567</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.0351854764311</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>186.2507170030308</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>121.1255468472098</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="H7" t="n">
-        <v>6.837139712982014</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>93.37692771947373</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>327.707106523863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>16.77840076253216</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>218.5035263306621</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274076</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>8.959399123749614</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>9.581723512349553</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>12.73247494085467</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>47.20011114811118</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>94.16481274941303</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>67.50278296289198</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896924</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>129.7991263300497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.1134893469141</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>16.88248091814297</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>12.25082275066678</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.01715209213655</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>73.09227163265444</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>84.3553181439795</v>
+        <v>77.91313604580239</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>76.33749994735975</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.0883375064757</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.3085003010329</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>53.03186927443389</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>88.52416382797675</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>206.4690032472063</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>219.1175572072692</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1140.317774917322</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>729.3318701277142</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>311.3680620259011</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.140060718708</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1447.000728742896</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.8558756644252</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="C4" t="n">
-        <v>370.8558756644252</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>370.8558756644252</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>370.8558756644252</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>370.8558756644252</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>370.8558756644252</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>370.8558756644252</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>370.8558756644252</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.8558756644252</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.006596680237</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>980.0440797398257</v>
+        <v>262.9439240077758</v>
       </c>
       <c r="D5" t="n">
-        <v>980.0440797398257</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>594.2558271415814</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2125.745768720171</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2125.745768720171</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1735.606436744359</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.965822962985</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>210.965822962985</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>60.84918355064931</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>60.84918355064931</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>60.84918355064931</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G7" t="n">
-        <v>60.84918355064931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>210.965822962985</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.965822962985</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.100961840373</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157406</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.100961840373</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2716929833838</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>711.1811046483211</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>563.0344460825052</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="T10" t="n">
-        <v>359.2716929833838</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="U10" t="n">
-        <v>359.2716929833838</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="V10" t="n">
-        <v>359.2716929833838</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W10" t="n">
-        <v>359.2716929833838</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X10" t="n">
-        <v>359.2716929833838</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2716929833838</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845924</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217.801580943136</v>
+        <v>723.5186631855837</v>
       </c>
       <c r="C13" t="n">
-        <v>217.801580943136</v>
+        <v>723.5186631855837</v>
       </c>
       <c r="D13" t="n">
-        <v>217.801580943136</v>
+        <v>573.4020237732479</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>425.4889301908548</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227927</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169058</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>620.2426249169058</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X13" t="n">
-        <v>620.2426249169058</v>
+        <v>905.1671280158234</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.4500457733757</v>
+        <v>905.1671280158234</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845924</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>688.5786845598172</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>519.6425016319104</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D16" t="n">
-        <v>369.5258622195746</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="E16" t="n">
-        <v>221.6127686371815</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="F16" t="n">
-        <v>221.6127686371815</v>
+        <v>144.8939714078729</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>144.8939714078729</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033474</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>909.3712637033474</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>909.3712637033474</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>688.5786845598172</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,34 +5533,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690735</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409608</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748357</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742901</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769786</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373971</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805659</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098443</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.9892362638</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.05892046586</v>
+        <v>2871.326567796374</v>
       </c>
       <c r="L18" t="n">
-        <v>3138.955990222749</v>
+        <v>3118.091695702838</v>
       </c>
       <c r="M18" t="n">
-        <v>3446.276123502711</v>
+        <v>3425.4118289828</v>
       </c>
       <c r="N18" t="n">
-        <v>3776.138751166744</v>
+        <v>3755.274456646833</v>
       </c>
       <c r="O18" t="n">
-        <v>4445.602512469403</v>
+        <v>4034.81452186553</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557071</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014294</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098069</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021847</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641234</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409491</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475757</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710803</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.3330639344405</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5680,7 +5682,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1230.811631218009</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>1230.811631218009</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324578</v>
+        <v>976.1271430121219</v>
       </c>
       <c r="W19" t="n">
-        <v>420.3226148324578</v>
+        <v>976.1271430121219</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3330639344405</v>
+        <v>748.1375921141046</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.3330639344405</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>943.0172707642139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.1765965867977</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C22" t="n">
-        <v>376.2404136588908</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="Y22" t="n">
-        <v>726.8250614170374</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,34 +5983,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>410.8883413288165</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>410.8883413288165</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>410.8883413288165</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>410.8883413288165</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>263.9983938309061</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6178,19 +6180,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>820.5263570570736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6248,28 +6250,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3138.955990222746</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3446.276123502707</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3776.13875116674</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4055.678816385437</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4575.979438121184</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.6946978510159</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C28" t="n">
-        <v>544.6416868225887</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D28" t="n">
-        <v>394.5250474102529</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W28" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X28" t="n">
-        <v>964.1357418247858</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="Y28" t="n">
-        <v>743.3431626812556</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4075.778457043642</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="C31" t="n">
-        <v>4075.778457043642</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D31" t="n">
-        <v>3925.661817631306</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E31" t="n">
-        <v>3777.748724048913</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048913</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>4637.069157803799</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>4382.384669597912</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W31" t="n">
-        <v>4092.967499560951</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X31" t="n">
-        <v>4092.967499560951</v>
+        <v>1024.881950926564</v>
       </c>
       <c r="Y31" t="n">
-        <v>4092.967499560951</v>
+        <v>804.0893717830343</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3446.276123502709</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3776.138751166742</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4360.722674916369</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>525.6009593486384</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="C34" t="n">
-        <v>356.6647764207315</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D34" t="n">
         <v>356.6647764207315</v>
@@ -6853,7 +6855,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>1189.923463282782</v>
+        <v>1085.355614489231</v>
       </c>
       <c r="V34" t="n">
-        <v>935.2389750768955</v>
+        <v>1085.355614489231</v>
       </c>
       <c r="W34" t="n">
-        <v>935.2389750768955</v>
+        <v>1085.355614489231</v>
       </c>
       <c r="X34" t="n">
-        <v>707.2494241788781</v>
+        <v>857.3660635912138</v>
       </c>
       <c r="Y34" t="n">
-        <v>707.2494241788781</v>
+        <v>857.3660635912138</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,19 +6925,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6959,25 +6961,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7466045204288</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C37" t="n">
-        <v>415.8104215925219</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7123,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1276.604818531159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1276.604818531159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1276.604818531159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>987.1876484941987</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>987.1876484941987</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y37" t="n">
-        <v>766.3950693506686</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7160,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.8460027287427</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="C40" t="n">
-        <v>653.8460027287427</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D40" t="n">
-        <v>653.8460027287427</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>506.0596387883055</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
         <v>359.1696912903951</v>
@@ -7327,7 +7329,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1445.348725836252</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1221.563310625758</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1221.563310625758</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>966.8788224198709</v>
       </c>
       <c r="W40" t="n">
-        <v>874.6385818722729</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="X40" t="n">
-        <v>874.6385818722729</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="Y40" t="n">
-        <v>653.8460027287427</v>
+        <v>677.4616523829102</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7433,13 +7435,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>410.874530133163</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>545.8631874464246</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1409.497923256916</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1185.712508046422</v>
       </c>
       <c r="U43" t="n">
-        <v>955.5012031746817</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="V43" t="n">
-        <v>955.5012031746817</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W43" t="n">
-        <v>955.5012031746817</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X43" t="n">
-        <v>727.5116522766643</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y43" t="n">
-        <v>727.5116522766643</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7716,37 +7718,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>412.607977814708</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>659.373105721172</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.046207783209</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4039.399954839299</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>4039.399954839299</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.859459491669</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4549.859459491669</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>4260.730820705227</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>4260.730820705227</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>4039.399954839299</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4039.399954839299</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4039.399954839299</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M12" t="n">
-        <v>124.3400780863219</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863221</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>223.6742649934456</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863212</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>286.5092576192341</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>360.5026862907246</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>199.7396287231151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>308.1251096272024</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>124.340078086323</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N45" t="n">
-        <v>39.88923345256785</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>137.4745635228196</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>135.8393245105817</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>153.7610935225229</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>101.713717219425</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>73.0820083492148</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>154.0447780954973</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>18.81634668816267</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24178,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518765</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>1.380079116463492</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>150.3643401804849</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>213.4588326383704</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162.8148280898008</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>152.6173837563827</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>201.8820342545978</v>
+        <v>208.324216352775</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>103.4944802345776</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>1.459223551913539</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25372,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.125462345536306</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>144.8889407091694</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>109.3966461556265</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>79.76834915137101</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>67.40544112932184</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776764.5424193959</v>
+        <v>776764.5424193958</v>
       </c>
     </row>
     <row r="7">
@@ -26314,34 +26316,34 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934488</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934483</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934485</v>
@@ -26350,10 +26352,10 @@
         <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26433,7 +26435,7 @@
         <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26451,7 +26453,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26524,43 @@
         <v>-193294.5438843569</v>
       </c>
       <c r="C6" t="n">
-        <v>396673.3353301876</v>
+        <v>396673.3353301875</v>
       </c>
       <c r="D6" t="n">
         <v>396673.3353301877</v>
       </c>
       <c r="E6" t="n">
-        <v>-26097.98945360383</v>
+        <v>-26097.98945360344</v>
       </c>
       <c r="F6" t="n">
+        <v>499062.0470232931</v>
+      </c>
+      <c r="G6" t="n">
+        <v>499062.0470232923</v>
+      </c>
+      <c r="H6" t="n">
         <v>499062.047023293</v>
       </c>
-      <c r="G6" t="n">
-        <v>499062.0470232927</v>
-      </c>
-      <c r="H6" t="n">
-        <v>499062.0470232928</v>
-      </c>
       <c r="I6" t="n">
-        <v>499062.0470232931</v>
+        <v>499062.0470232929</v>
       </c>
       <c r="J6" t="n">
-        <v>322638.8278307</v>
+        <v>322638.8278306999</v>
       </c>
       <c r="K6" t="n">
-        <v>499062.0470232929</v>
+        <v>499062.0470232925</v>
       </c>
       <c r="L6" t="n">
-        <v>499062.0470232931</v>
+        <v>499062.0470232926</v>
       </c>
       <c r="M6" t="n">
-        <v>364261.0317894556</v>
+        <v>364261.0317894557</v>
       </c>
       <c r="N6" t="n">
         <v>499062.0470232927</v>
       </c>
       <c r="O6" t="n">
-        <v>499062.0470232926</v>
+        <v>499062.0470232927</v>
       </c>
       <c r="P6" t="n">
         <v>499062.0470232926</v>
@@ -26738,22 +26740,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541006</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26796,13 +26798,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.3938687529068</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69.07194336087596</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>106.4139210005795</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>5.110353473587793</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>168.4323246176522</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>285.7504988945017</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="H7" t="n">
-        <v>149.3337491288131</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>289.3569139440069</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>58.53083213219054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>12.34434919238213</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6.531579127422191</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.590359236265405e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30277,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,16 +32235,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927188</v>
@@ -32251,19 +32253,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
         <v>0.2670576580354894</v>
@@ -32309,7 +32311,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
@@ -32318,19 +32320,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710957</v>
@@ -32339,13 +32341,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,19 +32405,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336902</v>
@@ -32424,7 +32426,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M12" t="n">
-        <v>434.7644551367884</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178469</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081121</v>
@@ -35899,13 +35901,13 @@
         <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>374.2497035813849</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>331.433493017846</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36051,16 +36053,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>535.7669625752584</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>609.7603912467489</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>287.7526615081892</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>532.9342021211286</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37160,16 +37162,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>590.4888118683106</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37400,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>457.5346514843358</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>274.9155166742622</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37871,13 +37873,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109119</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N45" t="n">
-        <v>373.0838068505807</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2862981.433317756</v>
+        <v>2855964.418426044</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9101501.585655255</v>
+        <v>9101501.585655253</v>
       </c>
     </row>
     <row r="11">
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>254.8508294034812</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>165.2346790503165</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>49.75696784121567</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>29.4750245876584</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>186.2507170030308</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>130.4850290902706</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>30.60408762095413</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.37692771947373</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>12.03808755530225</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>70.18226380646139</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.77840076253216</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>9.581723512349553</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>220.1796919361389</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>112.9041675380128</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20011114811118</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>67.50278296289198</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>12.25082275066678</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>116.8645225501837</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>73.09227163265444</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>77.91313604580239</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>76.33749994735975</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>33.20430972951689</v>
       </c>
       <c r="S40" t="n">
-        <v>53.03186927443389</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>88.52416382797675</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>10.45915033354361</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>263.0596061408513</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>204.1291651532058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1526.106027515566</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1526.106027515566</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1526.106027515566</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1140.317774917322</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>729.3318701277142</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>311.3680620259011</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.106027515566</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.2025452963399</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265796</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>631.9064409481875</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>262.9439240077758</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>512.9407614715037</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.506281012309</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198135</v>
+        <v>699.731258496553</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374204</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F7" t="n">
-        <v>84.85620163951003</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.106519274536</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2684.989406618927</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2466.35473959099</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2466.35473959099</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2135.291852247419</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="X8" t="n">
-        <v>1112.426648284105</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y8" t="n">
-        <v>1112.426648284105</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>711.1811046483211</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>563.0344460825052</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5071,7 +5071,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5123,16 +5123,16 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
         <v>2016.139981183168</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>723.5186631855837</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C13" t="n">
-        <v>723.5186631855837</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D13" t="n">
-        <v>573.4020237732479</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>425.4889301908548</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>1276.512541329479</v>
       </c>
       <c r="W13" t="n">
-        <v>1133.156678913841</v>
+        <v>987.0953712925186</v>
       </c>
       <c r="X13" t="n">
-        <v>905.1671280158234</v>
+        <v>759.1058203945013</v>
       </c>
       <c r="Y13" t="n">
-        <v>905.1671280158234</v>
+        <v>538.3132412509711</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5323,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.900558318119</v>
+        <v>379.4370268152256</v>
       </c>
       <c r="C16" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>291.7839189057833</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>291.7839189057833</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>144.8939714078729</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>144.8939714078729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>561.0854916454654</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2871.326567796374</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3118.091695702838</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.4118289828</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3755.274456646833</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4034.81452186553</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4555.115143601278</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1230.811631218009</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1230.811631218009</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>976.1271430121219</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>976.1271430121219</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>748.1375921141046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5752,16 +5752,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4347.940519017357</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>4093.25603081147</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>3803.838860774509</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.849309876492</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6171,22 +6171,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6214,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>973.0255547109412</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="C28" t="n">
-        <v>804.0893717830343</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="D28" t="n">
-        <v>653.9727323706985</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883054</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6414,22 +6414,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119728</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W28" t="n">
-        <v>1387.841167119728</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X28" t="n">
-        <v>1375.466598684711</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="Y28" t="n">
-        <v>1154.674019541181</v>
+        <v>102.8359039819272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,25 +6457,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>804.0893717830343</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C31" t="n">
-        <v>804.0893717830343</v>
+        <v>383.437385413378</v>
       </c>
       <c r="D31" t="n">
-        <v>653.9727323706985</v>
+        <v>383.437385413378</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883054</v>
+        <v>383.437385413378</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>383.437385413378</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>215.2620637331986</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1098.712528333286</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>1098.712528333286</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>1024.881950926564</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y31" t="n">
-        <v>804.0893717830343</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1085.355614489231</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>1085.355614489231</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>1085.355614489231</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X34" t="n">
-        <v>857.3660635912138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>857.3660635912138</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>973.0255547109412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>1270.926719659885</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>677.4616523829102</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C40" t="n">
-        <v>677.4616523829102</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E40" t="n">
         <v>527.3450129705744</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1465.376563760411</v>
       </c>
       <c r="S40" t="n">
-        <v>1445.348725836252</v>
+        <v>1465.376563760411</v>
       </c>
       <c r="T40" t="n">
-        <v>1221.563310625758</v>
+        <v>1465.376563760411</v>
       </c>
       <c r="U40" t="n">
-        <v>1221.563310625758</v>
+        <v>1465.376563760411</v>
       </c>
       <c r="V40" t="n">
-        <v>966.8788224198709</v>
+        <v>1465.376563760411</v>
       </c>
       <c r="W40" t="n">
-        <v>677.4616523829102</v>
+        <v>1175.95939372345</v>
       </c>
       <c r="X40" t="n">
-        <v>677.4616523829102</v>
+        <v>1175.95939372345</v>
       </c>
       <c r="Y40" t="n">
-        <v>677.4616523829102</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,25 +7478,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1409.497923256916</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1185.712508046422</v>
+        <v>1488.351472241192</v>
       </c>
       <c r="U43" t="n">
-        <v>896.5838692599799</v>
+        <v>1199.22283345475</v>
       </c>
       <c r="V43" t="n">
-        <v>896.5838692599799</v>
+        <v>944.5383452488629</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>223.6742649934456</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>135.8393245105817</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>31.95795138768912</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>54.34265356061505</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>101.713717219425</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>154.0447780954973</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139.8584236265064</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4588326383704</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>32.04930581735248</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24894,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>152.6173837563827</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>208.324216352775</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>103.4944802345776</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>76.76004267427591</v>
       </c>
       <c r="S40" t="n">
-        <v>144.8889407091694</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>109.3966461556265</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>211.0884107248456</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>23.17774625772603</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>82.3938331833852</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.5424193956</v>
       </c>
     </row>
     <row r="12">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="N2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="O2" t="n">
         <v>606095.0425934482</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934484</v>
       </c>
       <c r="P2" t="n">
         <v>606095.0425934484</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26453,10 +26453,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26484,19 +26484,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193294.5438843569</v>
+        <v>-193294.5438843567</v>
       </c>
       <c r="C6" t="n">
         <v>396673.3353301875</v>
       </c>
       <c r="D6" t="n">
-        <v>396673.3353301877</v>
+        <v>396673.3353301878</v>
       </c>
       <c r="E6" t="n">
-        <v>-26097.98945360344</v>
+        <v>-27072.58071332508</v>
       </c>
       <c r="F6" t="n">
-        <v>499062.0470232931</v>
+        <v>498087.4557635712</v>
       </c>
       <c r="G6" t="n">
-        <v>499062.0470232923</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="H6" t="n">
-        <v>499062.047023293</v>
+        <v>498087.4557635712</v>
       </c>
       <c r="I6" t="n">
-        <v>499062.0470232929</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="J6" t="n">
-        <v>322638.8278306999</v>
+        <v>321664.2365709781</v>
       </c>
       <c r="K6" t="n">
-        <v>499062.0470232925</v>
+        <v>498087.4557635712</v>
       </c>
       <c r="L6" t="n">
-        <v>499062.0470232926</v>
+        <v>498087.4557635712</v>
       </c>
       <c r="M6" t="n">
-        <v>364261.0317894557</v>
+        <v>363286.4405297339</v>
       </c>
       <c r="N6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="O6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.4557635707</v>
       </c>
       <c r="P6" t="n">
-        <v>499062.0470232926</v>
+        <v>498087.4557635711</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,19 +26752,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>69.07194336087596</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>85.98948845797278</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>106.4139210005795</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>196.2346308013788</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>168.4323246176522</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>283.2991409305243</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>120.5017245654299</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>136.7057146380968</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>289.3569139440069</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>162.3776252536693</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>85.98862503533375</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.34434919238213</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.769894134013742e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35503,7 +35503,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>374.2497035813849</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.556183571462</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2855964.418426044</v>
+        <v>2860903.681275076</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>165.2346790503165</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>29.4750245876584</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>149.5382355489263</v>
       </c>
       <c r="G5" t="n">
-        <v>130.4850290902706</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>28.11374845278241</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>78.25152918034365</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748116</v>
       </c>
       <c r="S8" t="n">
-        <v>12.03808755530225</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>150.4575943259479</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586925</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>70.18226380646139</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>220.1796919361389</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>194.8026695426865</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>112.9041675380128</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>197.640017326848</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>136.8402217474558</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>5.562624396424889</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>101.1426547140137</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.8645225501837</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>176.8688121773847</v>
+        <v>73.66308659887204</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>102.1555693376517</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>33.20430972951689</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>10.45915033354361</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>2.939815134220664</v>
       </c>
       <c r="U46" t="n">
-        <v>263.0596061408513</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1276.695321531225</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>865.7094167416178</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>447.7456086398047</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2080.404530622508</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C5" t="n">
-        <v>1309.714918859356</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.714918859356</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E5" t="n">
-        <v>923.9266662611112</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F5" t="n">
-        <v>512.9407614715037</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4609,10 +4609,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D7" t="n">
-        <v>699.731258496553</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>551.8181649141599</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>649.0870355394204</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>394.4025473335336</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632.3182666762915</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762915</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
         <v>221.3323618866839</v>
@@ -4801,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2684.989406618927</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="T8" t="n">
-        <v>2466.35473959099</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="U8" t="n">
-        <v>2466.35473959099</v>
+        <v>2212.181128500979</v>
       </c>
       <c r="V8" t="n">
-        <v>2135.291852247419</v>
+        <v>1881.118241157408</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.523196977305</v>
+        <v>1528.349585887294</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.057438716225</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.918106740413</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572651</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409106</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>498.8626623130037</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477913</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658214</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502506</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594909</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
     </row>
     <row r="11">
@@ -5026,52 +5026,52 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5108,7 +5108,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.91112712663</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>356.6647764207315</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609673</v>
       </c>
       <c r="V13" t="n">
-        <v>1276.512541329479</v>
+        <v>731.3177283550805</v>
       </c>
       <c r="W13" t="n">
-        <v>987.0953712925186</v>
+        <v>441.9005583181199</v>
       </c>
       <c r="X13" t="n">
-        <v>759.1058203945013</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y13" t="n">
-        <v>538.3132412509711</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>379.4370268152256</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
         <v>265.3924131404652</v>
@@ -5427,13 +5427,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5472,16 +5472,16 @@
         <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>810.2312405487826</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.867621687013</v>
+        <v>810.2312405487826</v>
       </c>
       <c r="X16" t="n">
-        <v>781.8780707889955</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="Y16" t="n">
-        <v>561.0854916454654</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
     <row r="17">
@@ -5494,46 +5494,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5731,10 +5731,10 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5749,49 +5749,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>383.3526312522304</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>383.3526312522304</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>383.3526312522304</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201016</v>
+        <v>235.4395376698373</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>235.4395376698373</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>235.4395376698373</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>565.0010960824701</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,67 +5974,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954967</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.8359039819272</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="C28" t="n">
-        <v>102.8359039819272</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D28" t="n">
-        <v>102.8359039819272</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E28" t="n">
-        <v>102.8359039819272</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="U28" t="n">
-        <v>874.927113122792</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="V28" t="n">
-        <v>620.2426249169051</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="W28" t="n">
-        <v>330.8254548799445</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="X28" t="n">
-        <v>102.8359039819272</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.8359039819272</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>552.3735683412849</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C31" t="n">
-        <v>383.437385413378</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D31" t="n">
-        <v>383.437385413378</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E31" t="n">
-        <v>383.437385413378</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F31" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>215.2620637331986</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X31" t="n">
-        <v>954.8146123150548</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y31" t="n">
-        <v>734.0220331715246</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954965</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207829</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W37" t="n">
-        <v>496.665036439558</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7171,49 +7171,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>994.3109288932102</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C40" t="n">
-        <v>825.3747459653033</v>
+        <v>927.5390436562263</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2581065529675</v>
+        <v>777.4224042438906</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
         <v>527.3450129705744</v>
@@ -7329,19 +7329,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1465.376563760411</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1465.376563760411</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1465.376563760411</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>1465.376563760411</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V40" t="n">
-        <v>1465.376563760411</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W40" t="n">
-        <v>1175.95939372345</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X40" t="n">
-        <v>1175.95939372345</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y40" t="n">
-        <v>1175.95939372345</v>
+        <v>1278.123691414373</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7429,28 +7429,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1488.351472241192</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>1199.22283345475</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>944.5383452488629</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>655.1211752119023</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X43" t="n">
-        <v>655.1211752119023</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.3285960683721</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1184.951646798694</v>
       </c>
       <c r="U46" t="n">
-        <v>809.4940713833126</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="V46" t="n">
-        <v>554.8095831774258</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W46" t="n">
-        <v>265.3924131404652</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X46" t="n">
-        <v>265.3924131404652</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>359.9065542451747</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165104</v>
       </c>
       <c r="O12" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>31.95795138768912</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>30.90698584635069</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>54.34265356061505</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>54.49762599698005</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>12.07360662008028</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.8584236265064</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>8.821697689779086</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271324</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>32.04930581735248</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,10 +24891,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271319</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>48.8408432116525</v>
+        <v>152.0465687901651</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>44.27839330891747</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>76.76004267427591</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>33.3868515673181</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>211.0884107248456</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>218.6077459241686</v>
       </c>
       <c r="U46" t="n">
-        <v>23.17774625772603</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.5424193956</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776764.5424193956</v>
+        <v>776764.5424193958</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448195</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448199</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="G2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934484</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.793916670882026e-10</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143897</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26435,31 +26435,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193294.5438843567</v>
+        <v>-193294.5438843569</v>
       </c>
       <c r="C6" t="n">
-        <v>396673.3353301875</v>
+        <v>396673.3353301873</v>
       </c>
       <c r="D6" t="n">
-        <v>396673.3353301878</v>
+        <v>396673.3353301869</v>
       </c>
       <c r="E6" t="n">
-        <v>-27072.58071332508</v>
+        <v>-26195.4485795754</v>
       </c>
       <c r="F6" t="n">
-        <v>498087.4557635712</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="G6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="H6" t="n">
-        <v>498087.4557635712</v>
+        <v>498964.5878973209</v>
       </c>
       <c r="I6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973204</v>
       </c>
       <c r="J6" t="n">
-        <v>321664.2365709781</v>
+        <v>322541.3687047277</v>
       </c>
       <c r="K6" t="n">
-        <v>498087.4557635712</v>
+        <v>498964.5878973205</v>
       </c>
       <c r="L6" t="n">
-        <v>498087.4557635712</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="M6" t="n">
-        <v>363286.4405297339</v>
+        <v>364163.5726634837</v>
       </c>
       <c r="N6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="O6" t="n">
-        <v>498087.4557635707</v>
+        <v>498964.5878973205</v>
       </c>
       <c r="P6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973207</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170871</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26810,13 +26810,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85.98948845797261</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>85.98948845797278</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>196.2346308013788</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>257.3378101927851</v>
       </c>
       <c r="G5" t="n">
-        <v>283.2991409305243</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>120.5017245654299</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>208.0303450616341</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>162.3776252536693</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>219.2735063525212</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060681</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>85.98862503533375</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853694</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491423</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.751586511466202e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.751586511466202e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.751586511466202e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-9.751586511466202e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-9.751586511466202e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.751586511466202e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-9.751586511466202e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-9.751586511466202e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.751586511466202e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.751586511466202e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.655809589057502e-12</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-9.751586511466202e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29106,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
     </row>
     <row r="24">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-1.506350599811412e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633809</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473561</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141118</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188924</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396486</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034988</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078619</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813583</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302248</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175855</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383811</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678015</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315615</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.017335757707</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355116</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713963</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873159</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145236</v>
       </c>
       <c r="O12" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058689</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
